--- a/云数据库上传模板/sap_dataset.xlsx
+++ b/云数据库上传模板/sap_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshuai/WeChatProjects/enjoyShare/云数据库上传模板/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4195934-B75E-A14F-A194-3202FA369D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29847701-306D-3140-8A31-63BCACFF34C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="24860" windowHeight="15540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="24860" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FI" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="733">
   <si>
     <t>CO</t>
   </si>
@@ -2309,6 +2309,37 @@
   </si>
   <si>
     <t>批准凭证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TVKO</t>
+  </si>
+  <si>
+    <t>SD0000053</t>
+  </si>
+  <si>
+    <t>销售机构</t>
+  </si>
+  <si>
+    <t>MM00000045</t>
+  </si>
+  <si>
+    <t>T001W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂/分支机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM00000046</t>
+  </si>
+  <si>
+    <t>T001K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2363,12 +2394,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF500B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2385,7 +2422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2398,12 +2435,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF500B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4376,10 +4427,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFDD6E3-8AE1-BC4C-90C1-3926246ED34A}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5023,18 +5074,47 @@
         <v>293</v>
       </c>
     </row>
+    <row r="46" spans="1:4" ht="23">
+      <c r="A46" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="23">
+      <c r="A47" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23"/>
@@ -5795,6 +5875,20 @@
         <v>421</v>
       </c>
     </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>726</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5806,8 +5900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C316D4E-6543-C04E-A275-049A0FDBA114}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D31"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -6257,5 +6351,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>